--- a/ml_model/try.xlsx
+++ b/ml_model/try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\SIH_2022\git\SIH-2022-DR710-PROSOL\ml_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85162AA1-467D-4904-992B-C132995E4BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B73C97-CDCA-45E0-8C50-294A814C6CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Category</t>
   </si>
@@ -267,6 +267,44 @@
 Page 6 of 6
 </t>
   </si>
+  <si>
+    <t>Advocate</t>
+  </si>
+  <si>
+    <t>Results-driven corporate lawyer with 8+ years of experience ensuring the legality of commercial transactions. Adept at drafting and reviewing policies, and client negotiation. Possess a J.D. from Duke Law School and am a member of the New York State Bar in good standing. Achieved advantageous settlements in 90% of cases.
+Bar Admissions
+New York
+December 2013
+Education
+Duke Law School,
+J.D., 2013
+B.A. Political Science
+University of Texas,  2010
+Experience
+General Counsel
+Rockford Corporation, New York, NY  /  September 2017 – Present
+Define and develop legal policies and procedures while advising on all major business transactions
+Draft and review contracts and internal policies in accordance with all applicable regulations
+Negotiate with opposing parties to avoid litigation and reach resolutions. Have thus far overseen 20+ mediations, achieving a 90% settlement rate
+Implemented a global intellectual property strategy over a 4-year period
+Reduced corporation’s reliance on external legal counsel, decreasing legal fees by over 60% annually
+Staff Attorney
+BAC Corporation, New York, NY  /  January 2014 – August 2017
+Advised executives regarding legal rights, opportunities, and obligations
+Conducted legal research and reviewed transactions to ensure maximum benefit to the company with minimal risk
+Drafted and renewed agreements on a weekly basis for product distribution, supply, licensing, and advertising
+Monitored changes to employment law at federal, state, and national levels
+Maintained a 95% satisfaction rate with company executives
+Skills
+Corporate law
+Excellent oral and written communication
+Legal research
+Time management
+Critical thinking
+Negotiation &amp; settlement
+Documentation
+Mediation</t>
+  </si>
 </sst>
 </file>
 
@@ -586,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,6 +656,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ml_model/try.xlsx
+++ b/ml_model/try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\SIH_2022\git\SIH-2022-DR710-PROSOL\ml_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B73C97-CDCA-45E0-8C50-294A814C6CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69528963-2194-4D2D-9ED7-605BE0B28DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Category</t>
   </si>
@@ -305,6 +305,46 @@
 Documentation
 Mediation</t>
   </si>
+  <si>
+    <t>Health and fitness</t>
+  </si>
+  <si>
+    <t>Effective personal trainer with over 10 years of experience helping
+clients achieve their health goals. Seeking to join a team of seasoned
+trainers at In-Shape to encourage, motivate, and shift perspectives on
+fitness, health, and wellness.
+WORK EXPERIENCE
+Personal Trainer
+Svetness
+2016 - current / San Francisco,CA
+Designed and instructed 8 group Spin and Zumba classes per week
+Created specialized meal and accountability plans on social media
+for 18 premium members
+Developed and customized fitness plans for 36 long-term clients
+Supervised and administered 28% of the gym's physical
+assessments
+Voted "Top Instructor" in 2019 for helping clients achieve weight
+loss
+Personal Trainer
+9Round
+2012 - 2016 / San Francisco,CA
+Developed 77 fitness courses ranging from Cross Fit to Pilates
+Conducted 11 orientations yearly for new members, providing a
+tour of the gym and overviewing programs
+Tracked 37 clients' progress and discussed program and nutrition to
+assist with accountability
+Assessed equipment for damage, handled light maintenance and
+placed orders for new equipment as needed
+Personal Trainer
+Crunch Fitness
+2010 - 2012 / San Francisco,CA
+Coached efficient and safe workouts for 112 short-term clients
+recovering from injuries
+Collaborated with a team of 4 to create and implement 13 fitness
+programs designed for weight loss
+Prepared and cleaned 3 workout studios for group classes, signed
+members into class, and tracked class attendance</t>
+  </si>
 </sst>
 </file>
 
@@ -624,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,6 +704,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ml_model/try.xlsx
+++ b/ml_model/try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\SIH_2022\git\SIH-2022-DR710-PROSOL\ml_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69528963-2194-4D2D-9ED7-605BE0B28DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17FFEBC-D53F-4648-A3DB-59308B056B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Category</t>
   </si>
@@ -345,6 +345,58 @@
 Prepared and cleaned 3 workout studios for group classes, signed
 members into class, and tracked class attendance</t>
   </si>
+  <si>
+    <t>Do everything with serious-minded. Motivated leader with strong organizational and prioritization abilities during school
+life. Excellent communication and time management skills. Handle tasks with accuracy and efficiency and able to learn new
+tasks quickly. Passionate, hard working,friendly and enthusiastic, with a drive for excellence.Player &amp; Captain
+Core player of the varsity team
+Assisting in organizing daily training
+Providing training for two trainees
+Responsible for teacher's badminton game as umpire
+Clerk
+Hosting regularly meetings once per month
+Organizing meetings convened
+Organizing "clear your plate" campaign andactivities
+Evaluating new members
+Participating variety show
+Enterprise Risk Management Services Department Intern
+Use computers for various applications, such as database management or word processing.
+Maintain, and enter intormation into databases
+Researching information.
+Proofreading working papers
+Review work done by others to check tor correct spelling and grammar, ensure that company format policies are
+followed, and recommend revisions.
+Leader of P.E. Dep
+Responsible for the sports events in the school of Business Administration.
+Athlete selection and training.
+Holding schools' games.
+Organizing university games.
+Organizing daily exercise.
+Responsible for the parties of school league committee twice per semester.
+Helping other department's job.
+Participamt
+Identity issues tor research and analysis.
+Develop and test theories, using intormation from interviews, newspapers, periodicals, historical papers, polls, and/or
+statistical sources.
+Collect, analyze, and interpret data such as election results and public opinion surveys; report on finding,
+recommendations, and conclusions.
+Delivering questionnaires in parking and gas station to collect data
+Coordinating with group members and organizers
+.Involving in preliminary contest, the semifinal and final competitions
+Attendant/ Investigator
+Assisting professor Li do the research
+Consulting with local supermarkets
+Persuading the staff accept interview
+Face to face interview supermarket staff
+Assisting market staff to complete questionnaires
+Volunteer
+.Coordinate communication between scholars, hotel staf, or host.
+Package and classify conference materials before the conference
+Helping seholars to check-in at hotel and conference sit
+Directing and assisting scholars during conference
+Guiding scholars have trips after conference
+Delivering information about seeing-off</t>
+  </si>
 </sst>
 </file>
 
@@ -664,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -712,6 +764,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ml_model/try.xlsx
+++ b/ml_model/try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\SIH_2022\git\SIH-2022-DR710-PROSOL\ml_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17FFEBC-D53F-4648-A3DB-59308B056B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B9A1B9-A839-405A-B1A1-18D7422FD48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Category</t>
   </si>
@@ -396,6 +396,60 @@
 Directing and assisting scholars during conference
 Guiding scholars have trips after conference
 Delivering information about seeing-off</t>
+  </si>
+  <si>
+    <t>EDUCATION
+• Indian Institute of Technology (IIT) Patna July 2018 - May 2022
+Bachelor of Technology in Computer Science and Engineering CPI: 8.43
+WORK EXPERIENCE
+•
+Microsoft Research India Jul 2022 - Present
+Research Fellow | Advisor: Dr. Venkat Padmanabhan
+◦ Systems Group. Work spans across Machine Learning, Systems and Networks, and HCI research.
+•
+Massachusetts Institute of Technology, MIT Media Lab Aug 2021 - Nov 2021
+Research Affiliate
+◦ Fluid Interfaces Group. Built the data streaming and unsupervised machine learning components in Python and C to
+create Brain-Computer Interfaces (BCI) for realtime-feedback in assistive devices.
+•
+Sybill.ai, Inc Jun 2021 - Aug 2021
+Software Engineering Intern
+◦ Worked on the core data capture infrastructure of a venture-backed, early-stage SaaS startup building an
+AI-powered video call partner which provides insights on participants’ emotions. Also built the user authorization
+and asynchronous dataflow pipeline to communicate with Microsoft Graph API. Languages - Python, C++.
+• Google Summer of Code (GSoC) 2019, Rocket.Chat May 2019 - Sep 2019
+◦ Designed and developed Newsfeed - a social networking feature - for the Open Source application Rocket.Chat
+(31000+ GitHub stars) using NodeJS, Meteor and MongoDB. (Project Report and Code Link)
+PUBLICATIONS
+•
+Multi-Modal Detection of Alzheimer’s Disease from Speech and Text [Link]
+Amish Mittal*, Sourav Sahoo*, Arnhav Datar*, Juned Kadiwala*, Hrithwik Shalu, Jimson Mathew BIOKDD (co-SIGKDD ’21)
+In collaboration with JCBC, University of Cambridge, UK *equal contribution
+•
+ScienceQA: A Novel Benchmark Resource for Question Answering on Scholarly Articles [accepted]
+Tanik Saikh, Tirthankar Ghosal, Amish Mittal, Asif Ekbal, Pushpak Bhattacharyya IJDL ’22
+International Journal on Digital Libraries (accepted)
+KEY PROJECTS
+• Making Gradient Descent non-monotonic over gradient (Bachelor Thesis):
+Advisor: Prof Jimson Mathew, IIT Patna. A novel non-monotonic gradient descent optimizer which aims to reduce the
+number of divergences while using gradient descent, along with its theoretical and empirical validation. (Report)
+• Decoding quantum states through nuclear magnetic resonance:
+Machine Learning for Physics. Built a model to predict the coupling parameters associated with nuclei and electrons
+given their time-dependent magnetization from an NMR achieving an R
+2 value of 0.992 and 0.997. (Source Code)
+• IndiaThanksYou: Developed a crowd-sourced web application and database using Django, PostgreSQL, Docker to
+share stories about individual, corporate, NGO and diplomacy collaboration to help India fight the pandemic. (Web)
+• Assembler and Emulator for custom machine: Developed a terminal assembler and emulator for a custom architecture
+consisting of 2 registers, program and stack counter, and select mnemonics using C++. (Source Code)
+TECHNICAL SKILLS
+• Most experienced with: C, C++, Python, Tensorflow, Keras
+• Some experience with: Node.js, FastAPI, JavaScript, SQL, MongoDB, Docker, AWS, GCP, Unreal Engine.
+Last updated on Jul 8, 2022 Page 1 of 2
+HONORS/POSITIONS OF RESPONSIBILITY
+• Selected to attend the Eastern European Machine Learning (EEML) Summer School 2021 organized by DeepMind.
+• Invited to present my GSoC 2019 project at Rocket.Chat Open Source Alumni Summit.
+• Recipient of the prestigious KVPY Fellowship by Dept. of Science and Technology, Govt. of India.
+• Coordinator - Machine/Deep Learning of NJACK, leading the Computer Science Society of IIT Patna.</t>
   </si>
 </sst>
 </file>
@@ -716,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,6 +823,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
